--- a/Projeto Final/Info.xlsx
+++ b/Projeto Final/Info.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Wri</t>
   </si>
@@ -51,12 +51,39 @@
     <t>S7</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C_Out</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Sel</t>
+  </si>
+  <si>
     <t>S0=Wri.B2'.B1'.B0'</t>
   </si>
   <si>
+    <t>C_Out=AB</t>
+  </si>
+  <si>
+    <t>S=Sel'B+SelB'</t>
+  </si>
+  <si>
     <t>S1=Wri.B2'.B1'.B0</t>
   </si>
   <si>
+    <t>S=A'B+AB'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this case can be used a XOR Gate</t>
+  </si>
+  <si>
     <t>S2=Wri.B2'.B1.B0'</t>
   </si>
   <si>
@@ -66,47 +93,68 @@
     <t>S4=Wri.B2.B1'.B0'</t>
   </si>
   <si>
+    <t>A'</t>
+  </si>
+  <si>
     <t>S5=Wri.B2.B1'.B0</t>
   </si>
   <si>
+    <t>B'</t>
+  </si>
+  <si>
     <t>S6=Wri.B2.B1.B0'</t>
   </si>
   <si>
     <t>S7=Wri.B2.B1.B0</t>
   </si>
   <si>
-    <t>Sel</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>Subtraction</t>
+  </si>
+  <si>
+    <t>C_In</t>
+  </si>
+  <si>
+    <t>C_Out=C_In'AB+C_In'AB+C_InA'B+CinAB'+C_InAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Out is to be used in the next circuit</t>
+  </si>
+  <si>
+    <t>S=C_In'A'B+C_In'AB'+C_InA'B'+C_InAB</t>
+  </si>
+  <si>
+    <t>C_In'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S is the value of the current circuit</t>
+  </si>
+  <si>
+    <t>C_Out=AB+C_InB+C_InA</t>
   </si>
   <si>
     <t>S=Sel'AB'+Sel'AB+SelA'B+SelAB</t>
   </si>
   <si>
+    <t xml:space="preserve">C_Out is the output to be used in the C_In of another Circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_In is an extra result value of an privious circuit</t>
+  </si>
+  <si>
     <t>Sel'</t>
   </si>
   <si>
-    <t>A'</t>
-  </si>
-  <si>
-    <t>B'</t>
-  </si>
-  <si>
     <t>S=Sel'A+SelB</t>
+  </si>
+  <si>
+    <t>S=Cin'AB'+C_In'A'B+C_InAB+C_InA'B'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -120,8 +168,35 @@
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <i/>
+      <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1" tint="0"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +229,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -188,10 +287,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -229,11 +368,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="49">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -252,26 +457,99 @@
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="1" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="6" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="7" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="6" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="5" fillId="8" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="9" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="6" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="10" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,7 +1057,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="S1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -825,21 +1103,42 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="8">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
       <c r="F2">
@@ -863,350 +1162,512 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>0</v>
+      </c>
+      <c r="R2" s="16">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="9">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>0</v>
+      </c>
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <v>1</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="9">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="9">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>1</v>
+      </c>
+      <c r="R5" s="18">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5" s="17">
+        <v>0</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="AC5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="17"/>
+      <c r="W6" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="8">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="s">
+    <row r="7" ht="14.25">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="V7" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0</v>
+      </c>
+      <c r="X7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="9">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="V8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13" t="s">
+      <c r="W8" s="22">
+        <v>1</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="17"/>
+      <c r="AC9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="Q10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="8">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="U10" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="8">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="8">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="8">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>0</v>
-      </c>
-      <c r="N10" s="13"/>
+      <c r="AC10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
         <v>0</v>
       </c>
       <c r="F11">
@@ -1227,25 +1688,58 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="14">
-        <v>0</v>
-      </c>
-      <c r="N11" s="13"/>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
         <v>0</v>
       </c>
       <c r="F12">
@@ -1266,24 +1760,54 @@
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12" s="14">
-        <v>0</v>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>1</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
         <v>0</v>
       </c>
       <c r="F13">
@@ -1304,24 +1828,51 @@
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13" s="14">
-        <v>0</v>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
         <v>0</v>
       </c>
       <c r="F14">
@@ -1342,24 +1893,58 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>1</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+      <c r="T14" s="13">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AC14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
         <v>0</v>
       </c>
       <c r="F15">
@@ -1380,24 +1965,48 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15" s="14">
-        <v>0</v>
-      </c>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>1</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="25"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1418,24 +2027,54 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>1</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <v>1</v>
+      </c>
+      <c r="T16" s="13">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1459,200 +2098,340 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" ht="14.25"/>
+      <c r="Q17" s="10">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="31">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="Q18" s="10">
+        <v>1</v>
+      </c>
+      <c r="R18" s="11">
+        <v>1</v>
+      </c>
+      <c r="S18" s="12">
+        <v>1</v>
+      </c>
+      <c r="T18" s="13">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="W18" s="34"/>
+      <c r="X18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="19" ht="14.25"/>
     <row r="20" ht="14.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="9">
-        <v>0</v>
-      </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="A21" s="10">
+        <v>0</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="9">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-      <c r="C22" s="11">
-        <v>1</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
+      <c r="A22" s="10">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="9">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="15"/>
+      <c r="A23" s="10">
+        <v>0</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="19"/>
+      <c r="W23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="9">
-        <v>0</v>
-      </c>
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11">
-        <v>1</v>
-      </c>
-      <c r="D24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="A24" s="10">
+        <v>0</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>1</v>
-      </c>
-      <c r="J24" s="18">
-        <v>0</v>
-      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+      <c r="W24" s="25"/>
+      <c r="X24" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA24" s="38"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="9">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="A25" s="10">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
-        <v>1</v>
-      </c>
-      <c r="J25" s="18">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="40">
+        <v>1</v>
+      </c>
+      <c r="H25" s="40">
+        <v>1</v>
+      </c>
+      <c r="I25" s="37">
+        <v>1</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0</v>
+      </c>
+      <c r="W25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="43">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="44">
+        <v>1</v>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="9">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12">
+      <c r="A26" s="10">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="W26" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="X26" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="41">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="9">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
+      <c r="A27" s="10">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="34"/>
+      <c r="X27" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y27" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="48" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="9">
-        <v>1</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11">
-        <v>1</v>
-      </c>
-      <c r="D28" s="12">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25"/>
+      <c r="A28" s="10">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="W29" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="30" ht="14.25"/>
     <row r="31" ht="14.25"/>
     <row r="32" ht="14.25"/>
     <row r="33" ht="14.25"/>
     <row r="34" ht="14.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="13">
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="Z24:AA24"/>
     <mergeCell ref="H26:I26"/>
+    <mergeCell ref="Y27:Z27"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
